--- a/locator.xlsx
+++ b/locator.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t xml:space="preserve">element_name</t>
   </si>
@@ -55,7 +55,7 @@
     <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">//div[contains(@class, 'datepicker__months')]//table[contains(@id, 'month-{month}-js-date-range')]//tbody//tr[contains(@class, 'datepicker__week-row')]//td[contains(@class, 'datepicker__month-day--valid') and text()='{day}']</t>
+    <t xml:space="preserve">//table[contains(@id, 'month-{month}-js-date-range')]//td[contains(@class, 'datepicker__month-day--valid') and text()='{day}']</t>
   </si>
   <si>
     <t xml:space="preserve">confirm_btn</t>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t xml:space="preserve">.//div[@id='js-area-date-filter']//div[contains(@id, 'js-date-unavailable')]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//div[@id='js-item-{i}']//div[contains(@class, 'details')]//a</t>
   </si>
 </sst>
 </file>
@@ -115,6 +121,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -302,15 +309,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -321,7 +328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
@@ -332,7 +339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
@@ -343,7 +350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
@@ -354,7 +361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>10</v>
       </c>
@@ -365,7 +372,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
@@ -376,7 +383,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>15</v>
       </c>
@@ -387,7 +394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>17</v>
       </c>
@@ -398,7 +405,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>19</v>
       </c>
@@ -409,7 +416,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>21</v>
       </c>
@@ -420,7 +427,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>23</v>
       </c>
@@ -431,7 +438,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>25</v>
       </c>
@@ -440,6 +447,17 @@
       </c>
       <c r="C12" s="0" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
